--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>7.170627956660001</v>
+        <v>9.962659847250888</v>
       </c>
       <c r="R2">
-        <v>64.53565160994</v>
+        <v>89.663938625258</v>
       </c>
       <c r="S2">
-        <v>0.0004569942830187592</v>
+        <v>0.0007919237303056096</v>
       </c>
       <c r="T2">
-        <v>0.000456994283018759</v>
+        <v>0.0007919237303056096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>6.014233757136888</v>
+        <v>6.768531421506222</v>
       </c>
       <c r="R3">
-        <v>54.12810381423199</v>
+        <v>60.91678279355601</v>
       </c>
       <c r="S3">
-        <v>0.0003832956416595621</v>
+        <v>0.0005380250589895458</v>
       </c>
       <c r="T3">
-        <v>0.0003832956416595621</v>
+        <v>0.0005380250589895458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>37.808529421572</v>
+        <v>22.18824575289767</v>
       </c>
       <c r="R4">
-        <v>340.2767647941479</v>
+        <v>199.694211776079</v>
       </c>
       <c r="S4">
-        <v>0.002409591168226358</v>
+        <v>0.00176372561293669</v>
       </c>
       <c r="T4">
-        <v>0.002409591168226357</v>
+        <v>0.00176372561293669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>1029.614895635376</v>
+        <v>1063.764078261097</v>
       </c>
       <c r="R5">
-        <v>9266.534060718383</v>
+        <v>9573.876704349872</v>
       </c>
       <c r="S5">
-        <v>0.06561881663087843</v>
+        <v>0.08455774160091344</v>
       </c>
       <c r="T5">
-        <v>0.06561881663087842</v>
+        <v>0.08455774160091344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>46.40279609869001</v>
+        <v>57.28594976403711</v>
       </c>
       <c r="R6">
-        <v>417.6251648882101</v>
+        <v>515.573547876334</v>
       </c>
       <c r="S6">
-        <v>0.002957315964704429</v>
+        <v>0.004553613565734096</v>
       </c>
       <c r="T6">
-        <v>0.002957315964704428</v>
+        <v>0.004553613565734096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
         <v>38.91950111050978</v>
@@ -883,10 +883,10 @@
         <v>350.275509994588</v>
       </c>
       <c r="S7">
-        <v>0.002480394968606032</v>
+        <v>0.003093679496602817</v>
       </c>
       <c r="T7">
-        <v>0.002480394968606031</v>
+        <v>0.003093679496602817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>244.667760221898</v>
+        <v>127.5838732869463</v>
       </c>
       <c r="R8">
-        <v>2202.009841997082</v>
+        <v>1148.254859582517</v>
       </c>
       <c r="S8">
-        <v>0.01559302314054133</v>
+        <v>0.01014153834511543</v>
       </c>
       <c r="T8">
-        <v>0.01559302314054132</v>
+        <v>0.01014153834511543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>6662.876717508064</v>
+        <v>6116.713456283261</v>
       </c>
       <c r="R9">
-        <v>59965.89045757258</v>
+        <v>55050.42110654934</v>
       </c>
       <c r="S9">
-        <v>0.4246345768827561</v>
+        <v>0.4862125789476804</v>
       </c>
       <c r="T9">
-        <v>0.424634576882756</v>
+        <v>0.4862125789476804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>17.15110874273</v>
+        <v>17.49657827309711</v>
       </c>
       <c r="R10">
-        <v>154.35997868457</v>
+        <v>157.469204457874</v>
       </c>
       <c r="S10">
-        <v>0.001093064469420821</v>
+        <v>0.001390788779909873</v>
       </c>
       <c r="T10">
-        <v>0.001093064469420821</v>
+        <v>0.001390788779909873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>14.38518046066622</v>
+        <v>11.88700022142978</v>
       </c>
       <c r="R11">
-        <v>129.466624145996</v>
+        <v>106.983001992868</v>
       </c>
       <c r="S11">
-        <v>0.000916787939696664</v>
+        <v>0.0009448879819073496</v>
       </c>
       <c r="T11">
-        <v>0.0009167879396966639</v>
+        <v>0.0009448879819073499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>90.43255394526599</v>
+        <v>38.96734250797633</v>
       </c>
       <c r="R12">
-        <v>813.8929855073939</v>
+        <v>350.706082571787</v>
       </c>
       <c r="S12">
-        <v>0.005763394838158892</v>
+        <v>0.003097482370386086</v>
       </c>
       <c r="T12">
-        <v>0.005763394838158889</v>
+        <v>0.003097482370386086</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>2462.690456806563</v>
+        <v>1868.199029653729</v>
       </c>
       <c r="R13">
-        <v>22164.21411125907</v>
+        <v>16813.79126688356</v>
       </c>
       <c r="S13">
-        <v>0.1569507533242139</v>
+        <v>0.1485016217757298</v>
       </c>
       <c r="T13">
-        <v>0.1569507533242139</v>
+        <v>0.1485016217757298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>33.39574526235</v>
+        <v>28.91709278993266</v>
       </c>
       <c r="R14">
-        <v>300.56170736115</v>
+        <v>260.2538351093939</v>
       </c>
       <c r="S14">
-        <v>0.002128358179267953</v>
+        <v>0.00229859619247324</v>
       </c>
       <c r="T14">
-        <v>0.002128358179267953</v>
+        <v>0.00229859619247324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>28.01007383391333</v>
+        <v>19.64598351927867</v>
       </c>
       <c r="R15">
-        <v>252.09066450522</v>
+        <v>176.813851673508</v>
       </c>
       <c r="S15">
-        <v>0.001785121705713768</v>
+        <v>0.001561643255179772</v>
       </c>
       <c r="T15">
-        <v>0.001785121705713767</v>
+        <v>0.001561643255179772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>176.08555693287</v>
+        <v>64.402435807283</v>
       </c>
       <c r="R16">
-        <v>1584.77001239583</v>
+        <v>579.6219222655469</v>
       </c>
       <c r="S16">
-        <v>0.01122218211945525</v>
+        <v>0.005119297254672871</v>
       </c>
       <c r="T16">
-        <v>0.01122218211945525</v>
+        <v>0.005119297254672871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>4795.222535708872</v>
+        <v>3087.625697284201</v>
       </c>
       <c r="R17">
-        <v>43157.00282137985</v>
+        <v>27788.6312755578</v>
       </c>
       <c r="S17">
-        <v>0.3056063287436819</v>
+        <v>0.2454328560314629</v>
       </c>
       <c r="T17">
-        <v>0.3056063287436819</v>
+        <v>0.2454328560314629</v>
       </c>
     </row>
   </sheetData>
